--- a/z0bug_odoo/z0bug_odoo/data/account_rc_type_tax.xlsx
+++ b/z0bug_odoo/z0bug_odoo/data/account_rc_type_tax.xlsx
@@ -20,18 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
-    <t xml:space="preserve">parent_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tax_src_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tax_dest_id</t>
+    <t xml:space="preserve">rc_type_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purchase_tax_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sale_tax_id</t>
   </si>
   <si>
     <t xml:space="preserve">l10n_it_reverse_charge.account_rc_type_1_1</t>
@@ -40,10 +40,19 @@
     <t xml:space="preserve">l10n_it_reverse_charge.account_rc_type_1</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.tax_a17c6cv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_aa17c6ca</t>
+    <t xml:space="preserve">external.a17c6ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">external.aa17c6cv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_reverse_charge.account_rc_type_1_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">external.a17c6ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">external.aa17c6bv</t>
   </si>
   <si>
     <t xml:space="preserve">l10n_it_reverse_charge.account_rc_type_2_1</t>
@@ -52,10 +61,10 @@
     <t xml:space="preserve">l10n_it_reverse_charge.account_rc_type_2</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.tax_a41v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_aa41a</t>
+    <t xml:space="preserve">external.a8aa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">external.aa8av</t>
   </si>
   <si>
     <t xml:space="preserve">l10n_it_reverse_charge.account_rc_type_3_1</t>
@@ -64,10 +73,10 @@
     <t xml:space="preserve">l10n_it_reverse_charge.account_rc_type_3</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.tax_a8av</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_aa8aa</t>
+    <t xml:space="preserve">external.a41a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">external.aa41v</t>
   </si>
 </sst>
 </file>
@@ -168,17 +177,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1008" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -215,27 +224,41 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>15</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
